--- a/biology/Médecine/Trouble_dissociatif_lié_au_sommeil/Trouble_dissociatif_lié_au_sommeil.xlsx
+++ b/biology/Médecine/Trouble_dissociatif_lié_au_sommeil/Trouble_dissociatif_lié_au_sommeil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trouble dissociatif lié au sommeil est un trouble du sommeil rare, compris dans les parasomnies impliquant des phénomènes psychopathologiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trouble dissociatif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un trouble dissociatif consiste en la perturbation de fonctions normalement intégrées. La dissociation psychique est retrouvée dans les troubles psychotiques tels la schizophrénie et en constitue l'un des trois piliers des manifestations cliniques. Les états dissociatifs sont également apparentés à ce que l'on pouvait appeler autrefois l'hystérie.
 Le DSM-IV dénombre quatre grands types de troubles dissociatifs :
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diagnostic
-Prédisposition
-La grande majorité des sujets concernés par des troubles ont un vécu traumatique, plus particulièrement concernant des abus sexuels.
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Prédisposition</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande majorité des sujets concernés par des troubles ont un vécu traumatique, plus particulièrement concernant des abus sexuels.
 L'immense majorité des personnes souffrant de cette parasomnie souffrent ou ont déjà souffert d'un trouble psychiatrique.
-Aspects cliniques
-Il consiste en des épisodes de trouble du comportement nocturnes, correspondant à des états dissociatifs (Cf infra) bien catégorisés, ou moins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le trouble dissociatif lié au sommeil</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aspects cliniques</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il consiste en des épisodes de trouble du comportement nocturnes, correspondant à des états dissociatifs (Cf infra) bien catégorisés, ou moins.
 Les manifestations cliniques sont diverses :
 déambulations nocturnes, fugues nocturnes ;
 cris, gémissements, hurlements ;
@@ -563,14 +624,88 @@
 Chez beaucoup de sujets, les comportements nocturnes peuvent être la mise en acte d'un événement traumatique.
 Un épisode peut durer de quelques secondes à plusieurs dizaines de minutes, et se répéter plusieurs fois par nuit. Il survient soit peu après l'endormissement, soit peu après un réveil nocturne. Des épisodes similaires peuvent également survenir durant la journée chez ces mêmes sujets.
 Il existe toujours, soit une amnésie de l'épisode au réveil, soit une remémoration des événements nocturnes sous la forme d'un rappel de rêve (l'impression d'avoir fait un cauchemar).
-Examens complémentaires
-La polysomnographie est indispensable au diagnostic, elle permet d'éliminer les diagnostics différentiels que sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le trouble dissociatif lié au sommeil</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La polysomnographie est indispensable au diagnostic, elle permet d'éliminer les diagnostics différentiels que sont :
 les parasomnies du sommeil lent profond (somnambulisme, terreur nocturne, éveil confusionnel) ;
 les troubles du comportement en sommeil paradoxal ;
 les formes complexes d'épilepsie nocturne.
 En effet l'enregistrement nocturne retrouve un tracé électro-encéphalo-graphique de veille, ce qui n'est pas le cas des autres parasomnies.
-Traitement
-La prise en charge n'est pas codifiée, elle nécessite une intervention pluri-disciplinaire, notamment sur le plan psychiatrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trouble_dissociatif_lié_au_sommeil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_dissociatif_li%C3%A9_au_sommeil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le trouble dissociatif lié au sommeil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge n'est pas codifiée, elle nécessite une intervention pluri-disciplinaire, notamment sur le plan psychiatrique.
  Portail de la médecine   Portail de la psychologie   Portail Sommeil et Rêve                   </t>
         </is>
       </c>
